--- a/docs/StructureDefinition-VARiskEpisodeProfile2.xlsx
+++ b/docs/StructureDefinition-VARiskEpisodeProfile2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3787" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3789" uniqueCount="512">
   <si>
     <t>Path</t>
   </si>
@@ -335,247 +335,244 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>final</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -988,6 +985,9 @@
   </si>
   <si>
     <t>Observation.value[x].coding.system</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0136</t>
   </si>
   <si>
     <t>Observation.value[x].coding.version</t>
@@ -1562,6 +1562,9 @@
   </si>
   <si>
     <t>Observation.component.value[x].coding.system</t>
+  </si>
+  <si>
+    <t>http://va.gov/Terminology/VistaDefinedTerms/2-.3212</t>
   </si>
   <si>
     <t>Observation.component.value[x].coding.version</t>
@@ -2777,7 +2780,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2796,15 +2799,17 @@
         <v>46</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>46</v>
@@ -2841,14 +2846,16 @@
         <v>46</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>107</v>
@@ -2878,7 +2885,7 @@
         <v>46</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>46</v>
@@ -2893,7 +2900,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2912,16 +2919,16 @@
         <v>46</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2971,7 +2978,7 @@
         <v>46</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>44</v>
@@ -3009,7 +3016,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3032,17 +3039,17 @@
         <v>58</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>46</v>
@@ -3091,7 +3098,7 @@
         <v>46</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>44</v>
@@ -3109,19 +3116,19 @@
         <v>46</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="AO11" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>46</v>
@@ -3129,11 +3136,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3152,17 +3159,17 @@
         <v>58</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>46</v>
@@ -3211,7 +3218,7 @@
         <v>46</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>44</v>
@@ -3229,16 +3236,16 @@
         <v>46</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>46</v>
@@ -3249,7 +3256,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3275,95 +3282,95 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="R13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>46</v>
@@ -3371,7 +3378,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3394,19 +3401,19 @@
         <v>46</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>46</v>
@@ -3431,14 +3438,14 @@
         <v>46</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>46</v>
       </c>
@@ -3455,7 +3462,7 @@
         <v>46</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>44</v>
@@ -3482,10 +3489,10 @@
         <v>46</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>46</v>
@@ -3493,11 +3500,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3516,17 +3523,17 @@
         <v>58</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>46</v>
@@ -3551,69 +3558,69 @@
         <v>46</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>169</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3636,13 +3643,13 @@
         <v>46</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3693,7 +3700,7 @@
         <v>46</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>44</v>
@@ -3720,7 +3727,7 @@
         <v>46</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>46</v>
@@ -3731,11 +3738,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3754,16 +3761,16 @@
         <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3801,19 +3808,19 @@
         <v>46</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>44</v>
@@ -3840,7 +3847,7 @@
         <v>46</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>46</v>
@@ -3851,7 +3858,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3874,19 +3881,19 @@
         <v>58</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>46</v>
@@ -3935,7 +3942,7 @@
         <v>46</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>44</v>
@@ -3959,10 +3966,10 @@
         <v>46</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>46</v>
@@ -3973,7 +3980,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3996,13 +4003,13 @@
         <v>46</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4053,7 +4060,7 @@
         <v>46</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>44</v>
@@ -4080,7 +4087,7 @@
         <v>46</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>46</v>
@@ -4091,11 +4098,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4114,16 +4121,16 @@
         <v>46</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4161,19 +4168,19 @@
         <v>46</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
@@ -4200,7 +4207,7 @@
         <v>46</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>46</v>
@@ -4211,7 +4218,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4237,92 +4244,92 @@
         <v>70</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="R21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>46</v>
@@ -4333,7 +4340,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4356,16 +4363,16 @@
         <v>58</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4415,34 +4422,34 @@
         <v>46</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>46</v>
@@ -4453,7 +4460,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4479,90 +4486,90 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="R23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>46</v>
@@ -4573,7 +4580,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4596,93 +4603,93 @@
         <v>58</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="R24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>46</v>
@@ -4693,7 +4700,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4716,19 +4723,19 @@
         <v>58</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>46</v>
@@ -4777,34 +4784,34 @@
         <v>46</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>46</v>
@@ -4815,7 +4822,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4838,19 +4845,19 @@
         <v>58</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>46</v>
@@ -4899,34 +4906,34 @@
         <v>46</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>46</v>
@@ -4937,7 +4944,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4960,19 +4967,19 @@
         <v>58</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>46</v>
@@ -5021,7 +5028,7 @@
         <v>46</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>44</v>
@@ -5039,19 +5046,19 @@
         <v>46</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>46</v>
@@ -5059,11 +5066,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5082,19 +5089,19 @@
         <v>46</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>46</v>
@@ -5143,7 +5150,7 @@
         <v>46</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>44</v>
@@ -5161,19 +5168,19 @@
         <v>46</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>46</v>
@@ -5181,11 +5188,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5204,19 +5211,19 @@
         <v>58</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>46</v>
@@ -5265,7 +5272,7 @@
         <v>46</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>44</v>
@@ -5283,19 +5290,19 @@
         <v>46</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>46</v>
@@ -5303,14 +5310,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E30" t="s" s="2">
         <v>44</v>
@@ -5328,16 +5335,16 @@
         <v>58</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5387,7 +5394,7 @@
         <v>46</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>44</v>
@@ -5402,22 +5409,22 @@
         <v>46</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AK30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>46</v>
@@ -5425,7 +5432,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5448,17 +5455,17 @@
         <v>58</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>46</v>
@@ -5507,7 +5514,7 @@
         <v>46</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
@@ -5525,19 +5532,19 @@
         <v>46</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>46</v>
@@ -5545,7 +5552,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5568,19 +5575,19 @@
         <v>58</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>46</v>
@@ -5617,58 +5624,58 @@
         <v>46</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD32" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH32" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AE32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH32" t="s" s="2">
+      <c r="AI32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AI32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>46</v>
@@ -5690,19 +5697,19 @@
         <v>58</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>46</v>
@@ -5751,7 +5758,7 @@
         <v>46</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>44</v>
@@ -5760,36 +5767,36 @@
         <v>57</v>
       </c>
       <c r="AH33" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AI33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP33" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5812,13 +5819,13 @@
         <v>46</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5869,7 +5876,7 @@
         <v>46</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>44</v>
@@ -5896,7 +5903,7 @@
         <v>46</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>46</v>
@@ -5907,11 +5914,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5930,16 +5937,16 @@
         <v>46</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5977,19 +5984,19 @@
         <v>46</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB35" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>44</v>
@@ -6016,7 +6023,7 @@
         <v>46</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>46</v>
@@ -6027,7 +6034,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6050,19 +6057,19 @@
         <v>58</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>46</v>
@@ -6111,7 +6118,7 @@
         <v>46</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>44</v>
@@ -6135,10 +6142,10 @@
         <v>46</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>46</v>
@@ -6149,7 +6156,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6172,13 +6179,13 @@
         <v>46</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6229,7 +6236,7 @@
         <v>46</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>44</v>
@@ -6256,7 +6263,7 @@
         <v>46</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>46</v>
@@ -6267,11 +6274,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6290,16 +6297,16 @@
         <v>46</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6337,19 +6344,19 @@
         <v>46</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB38" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>44</v>
@@ -6376,7 +6383,7 @@
         <v>46</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>46</v>
@@ -6385,9 +6392,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6401,7 +6408,7 @@
         <v>57</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>46</v>
@@ -6413,23 +6420,23 @@
         <v>70</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>46</v>
+        <v>311</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>46</v>
@@ -6471,34 +6478,34 @@
         <v>46</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>46</v>
@@ -6532,16 +6539,16 @@
         <v>58</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6591,34 +6598,34 @@
         <v>46</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>46</v>
@@ -6657,14 +6664,14 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>315</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>46</v>
@@ -6713,7 +6720,7 @@
         <v>46</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>44</v>
@@ -6737,10 +6744,10 @@
         <v>46</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>46</v>
@@ -6774,17 +6781,17 @@
         <v>58</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>46</v>
@@ -6833,34 +6840,34 @@
         <v>46</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AF42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>46</v>
@@ -6894,19 +6901,19 @@
         <v>58</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>46</v>
@@ -6955,34 +6962,34 @@
         <v>46</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AF43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>46</v>
@@ -7016,19 +7023,19 @@
         <v>58</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>46</v>
@@ -7077,34 +7084,34 @@
         <v>46</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AF44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>46</v>
@@ -7138,7 +7145,7 @@
         <v>46</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>321</v>
@@ -7217,7 +7224,7 @@
         <v>46</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>46</v>
@@ -7260,7 +7267,7 @@
         <v>46</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>331</v>
@@ -7380,7 +7387,7 @@
         <v>46</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>341</v>
@@ -7500,7 +7507,7 @@
         <v>46</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>348</v>
@@ -7535,7 +7542,7 @@
         <v>46</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X48" t="s" s="2">
         <v>351</v>
@@ -7620,7 +7627,7 @@
         <v>46</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>358</v>
@@ -7657,7 +7664,7 @@
         <v>46</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X49" t="s" s="2">
         <v>362</v>
@@ -8104,13 +8111,13 @@
         <v>46</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8161,7 +8168,7 @@
         <v>46</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>44</v>
@@ -8188,7 +8195,7 @@
         <v>46</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>46</v>
@@ -8203,7 +8210,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8222,16 +8229,16 @@
         <v>46</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8281,7 +8288,7 @@
         <v>46</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>44</v>
@@ -8308,7 +8315,7 @@
         <v>46</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>46</v>
@@ -8342,16 +8349,16 @@
         <v>58</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>397</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8698,7 +8705,7 @@
         <v>46</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>411</v>
@@ -8820,7 +8827,7 @@
         <v>46</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>420</v>
@@ -8857,7 +8864,7 @@
         <v>46</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X59" t="s" s="2">
         <v>424</v>
@@ -9062,7 +9069,7 @@
         <v>46</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>433</v>
@@ -9302,13 +9309,13 @@
         <v>46</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9359,7 +9366,7 @@
         <v>46</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>44</v>
@@ -9386,7 +9393,7 @@
         <v>46</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>46</v>
@@ -9401,7 +9408,7 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9420,16 +9427,16 @@
         <v>46</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9479,7 +9486,7 @@
         <v>46</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>44</v>
@@ -9506,7 +9513,7 @@
         <v>46</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>46</v>
@@ -9540,16 +9547,16 @@
         <v>58</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>397</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9697,7 +9704,7 @@
         <v>46</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X66" t="s" s="2">
         <v>452</v>
@@ -10022,13 +10029,13 @@
         <v>46</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10079,7 +10086,7 @@
         <v>46</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>44</v>
@@ -10106,7 +10113,7 @@
         <v>46</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>46</v>
@@ -10121,7 +10128,7 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10140,16 +10147,16 @@
         <v>46</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10199,7 +10206,7 @@
         <v>46</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>44</v>
@@ -10226,7 +10233,7 @@
         <v>46</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>46</v>
@@ -10260,16 +10267,16 @@
         <v>58</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>397</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10380,7 +10387,7 @@
         <v>58</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>471</v>
@@ -10390,7 +10397,7 @@
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>46</v>
@@ -10415,13 +10422,13 @@
         <v>46</v>
       </c>
       <c r="W72" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>46</v>
@@ -10463,13 +10470,13 @@
         <v>473</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AO72" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>46</v>
@@ -10500,13 +10507,13 @@
         <v>46</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10557,7 +10564,7 @@
         <v>46</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>44</v>
@@ -10584,7 +10591,7 @@
         <v>46</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>46</v>
@@ -10599,7 +10606,7 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10618,16 +10625,16 @@
         <v>46</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10665,19 +10672,19 @@
         <v>46</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB74" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE74" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>44</v>
@@ -10704,7 +10711,7 @@
         <v>46</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>46</v>
@@ -10738,19 +10745,19 @@
         <v>58</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>46</v>
@@ -10799,7 +10806,7 @@
         <v>46</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>44</v>
@@ -10823,10 +10830,10 @@
         <v>46</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>46</v>
@@ -10860,13 +10867,13 @@
         <v>46</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10917,7 +10924,7 @@
         <v>46</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>44</v>
@@ -10944,7 +10951,7 @@
         <v>46</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>46</v>
@@ -10959,7 +10966,7 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10978,16 +10985,16 @@
         <v>46</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11025,19 +11032,19 @@
         <v>46</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB77" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE77" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>44</v>
@@ -11064,7 +11071,7 @@
         <v>46</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>46</v>
@@ -11101,92 +11108,92 @@
         <v>70</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE78" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="R78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE78" t="s" s="2">
+      <c r="AF78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AF78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>46</v>
@@ -11220,16 +11227,16 @@
         <v>58</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11279,34 +11286,34 @@
         <v>46</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AF79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM79" t="s" s="2">
+      <c r="AN79" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>46</v>
@@ -11343,14 +11350,14 @@
         <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>46</v>
@@ -11399,34 +11406,34 @@
         <v>46</v>
       </c>
       <c r="AE80" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AF80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>46</v>
@@ -11460,17 +11467,17 @@
         <v>58</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>46</v>
@@ -11519,34 +11526,34 @@
         <v>46</v>
       </c>
       <c r="AE81" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AF81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>46</v>
@@ -11580,19 +11587,19 @@
         <v>58</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="L82" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>46</v>
@@ -11641,34 +11648,34 @@
         <v>46</v>
       </c>
       <c r="AE82" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AF82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>46</v>
@@ -11702,19 +11709,19 @@
         <v>58</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>46</v>
@@ -11763,34 +11770,34 @@
         <v>46</v>
       </c>
       <c r="AE83" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AF83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>46</v>
@@ -11824,19 +11831,19 @@
         <v>58</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>488</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>489</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>46</v>
@@ -11873,14 +11880,14 @@
         <v>46</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB84" s="2"/>
       <c r="AC84" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AE84" t="s" s="2">
         <v>487</v>
@@ -11907,16 +11914,16 @@
         <v>490</v>
       </c>
       <c r="AM84" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AN84" t="s" s="2">
+      <c r="AO84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP84" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP84" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="85" hidden="true">
@@ -11924,7 +11931,7 @@
         <v>487</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>46</v>
@@ -11946,19 +11953,19 @@
         <v>58</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>488</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>489</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>46</v>
@@ -12031,16 +12038,16 @@
         <v>490</v>
       </c>
       <c r="AM85" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AN85" t="s" s="2">
+      <c r="AO85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP85" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP85" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="86" hidden="true">
@@ -12068,13 +12075,13 @@
         <v>46</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12125,7 +12132,7 @@
         <v>46</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>44</v>
@@ -12152,7 +12159,7 @@
         <v>46</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>46</v>
@@ -12167,7 +12174,7 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12186,16 +12193,16 @@
         <v>46</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12233,19 +12240,19 @@
         <v>46</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB87" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE87" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>44</v>
@@ -12272,7 +12279,7 @@
         <v>46</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>46</v>
@@ -12306,19 +12313,19 @@
         <v>58</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>46</v>
@@ -12367,7 +12374,7 @@
         <v>46</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>44</v>
@@ -12391,10 +12398,10 @@
         <v>46</v>
       </c>
       <c r="AM88" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>46</v>
@@ -12428,13 +12435,13 @@
         <v>46</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12485,7 +12492,7 @@
         <v>46</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>44</v>
@@ -12512,7 +12519,7 @@
         <v>46</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>46</v>
@@ -12527,7 +12534,7 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12546,16 +12553,16 @@
         <v>46</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12593,19 +12600,19 @@
         <v>46</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB90" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE90" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>44</v>
@@ -12632,7 +12639,7 @@
         <v>46</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>46</v>
@@ -12641,7 +12648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
         <v>496</v>
       </c>
@@ -12657,7 +12664,7 @@
         <v>57</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>46</v>
@@ -12669,23 +12676,23 @@
         <v>70</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>46</v>
+        <v>497</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>46</v>
@@ -12727,34 +12734,34 @@
         <v>46</v>
       </c>
       <c r="AE91" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AF91" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AN91" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>46</v>
@@ -12765,7 +12772,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12788,16 +12795,16 @@
         <v>58</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12847,34 +12854,34 @@
         <v>46</v>
       </c>
       <c r="AE92" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AF92" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM92" t="s" s="2">
+      <c r="AN92" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>46</v>
@@ -12885,7 +12892,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12913,14 +12920,14 @@
         <v>76</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>46</v>
@@ -12969,34 +12976,34 @@
         <v>46</v>
       </c>
       <c r="AE93" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AF93" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM93" t="s" s="2">
+      <c r="AN93" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>46</v>
@@ -13007,7 +13014,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13030,17 +13037,17 @@
         <v>58</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>46</v>
@@ -13089,34 +13096,34 @@
         <v>46</v>
       </c>
       <c r="AE94" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AF94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM94" t="s" s="2">
+      <c r="AN94" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>46</v>
@@ -13127,7 +13134,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13150,19 +13157,19 @@
         <v>58</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K95" t="s" s="2">
+      <c r="L95" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>46</v>
@@ -13211,34 +13218,34 @@
         <v>46</v>
       </c>
       <c r="AE95" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AF95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM95" t="s" s="2">
+      <c r="AN95" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>46</v>
@@ -13249,7 +13256,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13272,19 +13279,19 @@
         <v>58</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>46</v>
@@ -13333,34 +13340,34 @@
         <v>46</v>
       </c>
       <c r="AE96" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AF96" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM96" t="s" s="2">
+      <c r="AN96" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>46</v>
@@ -13371,7 +13378,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13394,16 +13401,16 @@
         <v>46</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>322</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>324</v>
@@ -13455,7 +13462,7 @@
         <v>46</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>44</v>
@@ -13493,7 +13500,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13516,7 +13523,7 @@
         <v>46</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>331</v>
@@ -13525,7 +13532,7 @@
         <v>332</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>333</v>
@@ -13577,7 +13584,7 @@
         <v>46</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>44</v>
@@ -13615,7 +13622,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13641,7 +13648,7 @@
         <v>46</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>387</v>
@@ -13699,7 +13706,7 @@
         <v>46</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>44</v>
